--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesvaronapena/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{839114F3-4760-F646-84E7-6AD505720829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCDEDDD-93B9-7E43-A805-DE670B490C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4860" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart Template" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>Nombre de la tarea</t>
   </si>
@@ -52,28 +52,13 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Andrew</t>
-  </si>
-  <si>
     <t>Abierto</t>
-  </si>
-  <si>
-    <t>Helen</t>
   </si>
   <si>
     <t>En progreso</t>
   </si>
   <si>
-    <t>Paul</t>
-  </si>
-  <si>
     <t>Terminado</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Victoria</t>
   </si>
   <si>
     <t>Cerrado</t>
@@ -224,12 +209,6 @@
     <t>Grabación</t>
   </si>
   <si>
-    <t>comunicación</t>
-  </si>
-  <si>
-    <t>Implementación.</t>
-  </si>
-  <si>
     <t>Comprensión de la red</t>
   </si>
   <si>
@@ -248,9 +227,6 @@
     <t>Puesta en común de ideas/conocimientos</t>
   </si>
   <si>
-    <t>pptx</t>
-  </si>
-  <si>
     <t>Linux</t>
   </si>
   <si>
@@ -258,6 +234,33 @@
   </si>
   <si>
     <t>06.06.2023</t>
+  </si>
+  <si>
+    <t>IMPLEMENTACIÓN</t>
+  </si>
+  <si>
+    <t>Power Point</t>
+  </si>
+  <si>
+    <t>Inés</t>
+  </si>
+  <si>
+    <t>Óscar</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Inés y Daniel</t>
+  </si>
+  <si>
+    <t>Óscar y David</t>
+  </si>
+  <si>
+    <t>Todos</t>
   </si>
 </sst>
 </file>
@@ -276,6 +279,7 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -283,20 +287,24 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -523,58 +531,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -592,44 +560,68 @@
     <xf numFmtId="164" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -957,10 +949,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:X1003"/>
+  <dimension ref="B1:X1004"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -975,88 +967,88 @@
     <col min="8" max="24" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="152" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:24" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
     </row>
     <row r="2" spans="2:24" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
       <c r="C2" s="10"/>
-      <c r="H2" s="37">
+      <c r="H2" s="22">
         <v>2</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="22">
         <v>3</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="22">
         <v>4</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K2" s="22">
         <v>5</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L2" s="22">
         <v>6</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="22">
         <v>7</v>
       </c>
-      <c r="N2" s="37">
+      <c r="N2" s="22">
         <v>8</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22">
         <v>9</v>
       </c>
-      <c r="R2" s="37">
+      <c r="R2" s="22">
         <v>10</v>
       </c>
-      <c r="S2" s="37">
+      <c r="S2" s="22">
         <v>11</v>
       </c>
-      <c r="T2" s="37">
+      <c r="T2" s="22">
         <v>12</v>
       </c>
-      <c r="U2" s="37">
+      <c r="U2" s="22">
         <v>13</v>
       </c>
-      <c r="V2" s="37">
+      <c r="V2" s="22">
         <v>14</v>
       </c>
-      <c r="W2" s="37">
+      <c r="W2" s="22">
         <v>15</v>
       </c>
-      <c r="X2" s="37">
+      <c r="X2" s="22">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="63" x14ac:dyDescent="0.15">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1065,37 +1057,37 @@
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="18">
         <v>44970</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="19">
         <v>44977</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="19">
         <v>44984</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="19">
         <v>44991</v>
       </c>
-      <c r="L3" s="33">
+      <c r="L3" s="19">
         <v>44998</v>
       </c>
-      <c r="M3" s="33">
+      <c r="M3" s="19">
         <v>45005</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="19">
         <v>45012</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="20">
         <v>45019</v>
       </c>
-      <c r="P3" s="35">
+      <c r="P3" s="21">
         <v>45026</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="Q3" s="16">
         <v>45033</v>
       </c>
       <c r="R3" s="3">
@@ -1121,10 +1113,10 @@
       </c>
     </row>
     <row r="4" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B4" s="36" t="s">
-        <v>69</v>
+      <c r="B4" s="41" t="s">
+        <v>62</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1132,39 +1124,39 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="39"/>
+      <c r="K4" s="24"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="39"/>
+      <c r="N4" s="24"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="39"/>
+      <c r="Q4" s="24"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="39"/>
+      <c r="T4" s="24"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
-      <c r="W4" s="39"/>
+      <c r="W4" s="24"/>
       <c r="X4" s="6"/>
     </row>
     <row r="5" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B5" s="22" t="s">
-        <v>17</v>
+      <c r="B5" s="30" t="s">
+        <v>12</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -1175,11 +1167,11 @@
       <c r="X5" s="6"/>
     </row>
     <row r="6" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B6" s="26" t="s">
-        <v>64</v>
+      <c r="B6" s="36" t="s">
+        <v>57</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4">
         <v>44970</v>
@@ -1189,8 +1181,8 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -1208,9 +1200,9 @@
       <c r="X6" s="6"/>
     </row>
     <row r="7" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B7" s="24"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4">
         <v>44970</v>
@@ -1221,7 +1213,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="38"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -1239,9 +1231,9 @@
       <c r="X7" s="6"/>
     </row>
     <row r="8" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B8" s="25"/>
-      <c r="C8" s="18" t="s">
-        <v>21</v>
+      <c r="B8" s="38"/>
+      <c r="C8" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="4">
         <v>44970</v>
@@ -1253,7 +1245,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="38"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -1270,16 +1262,16 @@
       <c r="X8" s="6"/>
     </row>
     <row r="9" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B9" s="19" t="s">
-        <v>22</v>
+      <c r="B9" s="14" t="s">
+        <v>17</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>23</v>
+      <c r="C9" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="4">
         <v>44998</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="26">
         <v>45003</v>
       </c>
       <c r="F9" s="5"/>
@@ -1303,16 +1295,16 @@
       <c r="X9" s="6"/>
     </row>
     <row r="10" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B10" s="41" t="s">
-        <v>71</v>
+      <c r="B10" s="25" t="s">
+        <v>63</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>72</v>
+      <c r="C10" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="D10" s="4">
         <v>44998</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="26">
         <v>45003</v>
       </c>
       <c r="F10" s="5"/>
@@ -1336,11 +1328,11 @@
       <c r="X10" s="6"/>
     </row>
     <row r="11" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B11" s="26" t="s">
-        <v>24</v>
+      <c r="B11" s="36" t="s">
+        <v>19</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>25</v>
+      <c r="C11" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="4">
         <v>45005</v>
@@ -1369,9 +1361,9 @@
       <c r="X11" s="6"/>
     </row>
     <row r="12" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B12" s="27"/>
-      <c r="C12" s="18" t="s">
-        <v>26</v>
+      <c r="B12" s="39"/>
+      <c r="C12" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="4">
         <v>45005</v>
@@ -1400,9 +1392,9 @@
       <c r="X12" s="6"/>
     </row>
     <row r="13" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B13" s="27"/>
-      <c r="C13" s="18" t="s">
-        <v>27</v>
+      <c r="B13" s="39"/>
+      <c r="C13" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="4">
         <v>45005</v>
@@ -1431,9 +1423,9 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
-      <c r="C14" s="18" t="s">
-        <v>28</v>
+      <c r="B14" s="40"/>
+      <c r="C14" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="4">
         <v>45005</v>
@@ -1462,10 +1454,10 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B15" s="20" t="s">
-        <v>29</v>
+      <c r="B15" s="34" t="s">
+        <v>24</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="4">
         <v>45040</v>
       </c>
@@ -1493,11 +1485,11 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B16" s="40" t="s">
-        <v>30</v>
+      <c r="B16" s="15" t="s">
+        <v>25</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>31</v>
+      <c r="C16" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="4">
         <v>45005</v>
@@ -1526,10 +1518,10 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B17" s="22" t="s">
-        <v>18</v>
+      <c r="B17" s="30" t="s">
+        <v>13</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
@@ -1553,11 +1545,11 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B18" s="26" t="s">
-        <v>65</v>
+      <c r="B18" s="36" t="s">
+        <v>58</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>32</v>
+      <c r="C18" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D18" s="4">
         <v>44970</v>
@@ -1586,9 +1578,9 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B19" s="28"/>
-      <c r="C19" s="18" t="s">
-        <v>33</v>
+      <c r="B19" s="40"/>
+      <c r="C19" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="D19" s="4">
         <v>44970</v>
@@ -1617,11 +1609,11 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B20" s="26" t="s">
-        <v>34</v>
+      <c r="B20" s="36" t="s">
+        <v>29</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>35</v>
+      <c r="C20" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="D20" s="4">
         <v>44998</v>
@@ -1650,9 +1642,9 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B21" s="27"/>
-      <c r="C21" s="18" t="s">
-        <v>36</v>
+      <c r="B21" s="39"/>
+      <c r="C21" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D21" s="4">
         <v>44998</v>
@@ -1681,9 +1673,9 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B22" s="28"/>
-      <c r="C22" s="18" t="s">
-        <v>37</v>
+      <c r="B22" s="40"/>
+      <c r="C22" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="D22" s="4">
         <v>44998</v>
@@ -1712,11 +1704,11 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B23" s="26" t="s">
-        <v>40</v>
+      <c r="B23" s="36" t="s">
+        <v>35</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>38</v>
+      <c r="C23" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="D23" s="4">
         <v>45040</v>
@@ -1745,9 +1737,9 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B24" s="27"/>
-      <c r="C24" s="18" t="s">
-        <v>39</v>
+      <c r="B24" s="39"/>
+      <c r="C24" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="D24" s="4">
         <v>45040</v>
@@ -1776,9 +1768,9 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B25" s="28"/>
-      <c r="C25" s="18" t="s">
-        <v>40</v>
+      <c r="B25" s="40"/>
+      <c r="C25" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="D25" s="4">
         <v>45040</v>
@@ -1807,11 +1799,11 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B26" s="19" t="s">
-        <v>66</v>
+      <c r="B26" s="14" t="s">
+        <v>59</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>41</v>
+      <c r="C26" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="D26" s="4">
         <v>45054</v>
@@ -1840,11 +1832,11 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B27" s="19" t="s">
-        <v>42</v>
+      <c r="B27" s="14" t="s">
+        <v>37</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>43</v>
+      <c r="C27" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="4">
         <v>45054</v>
@@ -1873,10 +1865,10 @@
       <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B28" s="22" t="s">
-        <v>44</v>
+      <c r="B28" s="30" t="s">
+        <v>39</v>
       </c>
-      <c r="C28" s="23"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
@@ -1900,11 +1892,11 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B29" s="26" t="s">
-        <v>45</v>
+      <c r="B29" s="36" t="s">
+        <v>40</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>46</v>
+      <c r="C29" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D29" s="4">
         <v>45061</v>
@@ -1933,9 +1925,9 @@
       <c r="X29" s="6"/>
     </row>
     <row r="30" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B30" s="27"/>
-      <c r="C30" s="18" t="s">
-        <v>47</v>
+      <c r="B30" s="39"/>
+      <c r="C30" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="D30" s="4">
         <v>45061</v>
@@ -1964,9 +1956,9 @@
       <c r="X30" s="6"/>
     </row>
     <row r="31" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B31" s="28"/>
-      <c r="C31" s="18" t="s">
-        <v>48</v>
+      <c r="B31" s="40"/>
+      <c r="C31" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="D31" s="4">
         <v>45061</v>
@@ -1995,11 +1987,11 @@
       <c r="X31" s="6"/>
     </row>
     <row r="32" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B32" s="26" t="s">
-        <v>49</v>
+      <c r="B32" s="36" t="s">
+        <v>44</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>50</v>
+      <c r="C32" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="D32" s="4">
         <v>45061</v>
@@ -2028,9 +2020,9 @@
       <c r="X32" s="6"/>
     </row>
     <row r="33" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B33" s="27"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D33" s="4">
         <v>45061</v>
@@ -2059,9 +2051,9 @@
       <c r="X33" s="6"/>
     </row>
     <row r="34" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B34" s="27"/>
-      <c r="C34" s="18" t="s">
-        <v>51</v>
+      <c r="B34" s="39"/>
+      <c r="C34" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="D34" s="4">
         <v>45061</v>
@@ -2090,9 +2082,9 @@
       <c r="X34" s="6"/>
     </row>
     <row r="35" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B35" s="28"/>
-      <c r="C35" s="18" t="s">
-        <v>52</v>
+      <c r="B35" s="40"/>
+      <c r="C35" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="D35" s="4">
         <v>45061</v>
@@ -2121,11 +2113,11 @@
       <c r="X35" s="6"/>
     </row>
     <row r="36" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B36" s="26" t="s">
-        <v>53</v>
+      <c r="B36" s="36" t="s">
+        <v>48</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>54</v>
+      <c r="C36" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="D36" s="4">
         <v>45061</v>
@@ -2154,9 +2146,9 @@
       <c r="X36" s="6"/>
     </row>
     <row r="37" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B37" s="27"/>
-      <c r="C37" s="18" t="s">
-        <v>55</v>
+      <c r="B37" s="39"/>
+      <c r="C37" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="D37" s="4">
         <v>45061</v>
@@ -2185,9 +2177,9 @@
       <c r="X37" s="6"/>
     </row>
     <row r="38" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B38" s="28"/>
-      <c r="C38" s="18" t="s">
-        <v>56</v>
+      <c r="B38" s="40"/>
+      <c r="C38" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="D38" s="4">
         <v>45061</v>
@@ -2216,10 +2208,10 @@
       <c r="X38" s="6"/>
     </row>
     <row r="39" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B39" s="22" t="s">
-        <v>57</v>
+      <c r="B39" s="30" t="s">
+        <v>52</v>
       </c>
-      <c r="C39" s="23"/>
+      <c r="C39" s="42"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2243,11 +2235,11 @@
       <c r="X39" s="6"/>
     </row>
     <row r="40" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B40" s="26" t="s">
-        <v>67</v>
+      <c r="B40" s="36" t="s">
+        <v>60</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>58</v>
+      <c r="C40" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="D40" s="4">
         <v>44970</v>
@@ -2276,9 +2268,9 @@
       <c r="X40" s="6"/>
     </row>
     <row r="41" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B41" s="28"/>
-      <c r="C41" s="18" t="s">
-        <v>59</v>
+      <c r="B41" s="40"/>
+      <c r="C41" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="D41" s="4">
         <v>44970</v>
@@ -2307,15 +2299,15 @@
       <c r="X41" s="6"/>
     </row>
     <row r="42" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B42" s="20" t="s">
-        <v>60</v>
+      <c r="B42" s="34" t="s">
+        <v>67</v>
       </c>
-      <c r="C42" s="21"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="4">
         <v>44970</v>
       </c>
-      <c r="E42" s="42" t="s">
-        <v>73</v>
+      <c r="E42" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -2338,15 +2330,15 @@
       <c r="X42" s="6"/>
     </row>
     <row r="43" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B43" s="20" t="s">
-        <v>63</v>
+      <c r="B43" s="34" t="s">
+        <v>55</v>
       </c>
-      <c r="C43" s="21"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="4">
         <v>44970</v>
       </c>
-      <c r="E43" s="42" t="s">
-        <v>73</v>
+      <c r="E43" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -2369,17 +2361,15 @@
       <c r="X43" s="6"/>
     </row>
     <row r="44" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B44" s="26" t="s">
-        <v>68</v>
+      <c r="B44" s="30" t="s">
+        <v>66</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>61</v>
-      </c>
+      <c r="C44" s="42"/>
       <c r="D44" s="4">
         <v>44970</v>
       </c>
-      <c r="E44" s="42" t="s">
-        <v>73</v>
+      <c r="E44" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -2402,15 +2392,17 @@
       <c r="X44" s="6"/>
     </row>
     <row r="45" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B45" s="28"/>
-      <c r="C45" s="18" t="s">
-        <v>62</v>
+      <c r="B45" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D45" s="4">
         <v>44970</v>
       </c>
-      <c r="E45" s="42" t="s">
-        <v>73</v>
+      <c r="E45" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -2433,15 +2425,15 @@
       <c r="X45" s="6"/>
     </row>
     <row r="46" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B46" s="20" t="s">
-        <v>70</v>
+      <c r="B46" s="40"/>
+      <c r="C46" s="13" t="s">
+        <v>37</v>
       </c>
-      <c r="C46" s="21"/>
       <c r="D46" s="4">
         <v>44970</v>
       </c>
-      <c r="E46" s="42" t="s">
-        <v>73</v>
+      <c r="E46" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -2462,31 +2454,6 @@
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
-    </row>
-    <row r="47" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B47" s="1"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
     </row>
     <row r="48" spans="2:24" ht="13" x14ac:dyDescent="0.15">
       <c r="B48" s="1"/>
@@ -26388,11 +26355,36 @@
       <c r="W1003" s="6"/>
       <c r="X1003" s="6"/>
     </row>
+    <row r="1004" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="B1004" s="1"/>
+      <c r="C1004" s="7"/>
+      <c r="D1004" s="4"/>
+      <c r="E1004" s="4"/>
+      <c r="F1004" s="4"/>
+      <c r="G1004" s="4"/>
+      <c r="H1004" s="6"/>
+      <c r="I1004" s="6"/>
+      <c r="J1004" s="6"/>
+      <c r="K1004" s="6"/>
+      <c r="L1004" s="6"/>
+      <c r="M1004" s="6"/>
+      <c r="N1004" s="6"/>
+      <c r="O1004" s="6"/>
+      <c r="P1004" s="6"/>
+      <c r="Q1004" s="6"/>
+      <c r="R1004" s="6"/>
+      <c r="S1004" s="6"/>
+      <c r="T1004" s="6"/>
+      <c r="U1004" s="6"/>
+      <c r="V1004" s="6"/>
+      <c r="W1004" s="6"/>
+      <c r="X1004" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
@@ -26400,8 +26392,8 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B40:B41"/>
@@ -26414,43 +26406,38 @@
     <mergeCell ref="B11:B14"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="H5:X1003">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="7">
+  <conditionalFormatting sqref="H48:X1004 H5:X46">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="7">
       <formula>LEN(TRIM(H5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:X4 H5:X32 H35:X40 H43:X1003">
-    <cfRule type="expression" dxfId="6" priority="8">
+  <conditionalFormatting sqref="D4:X4 H5:X32 H35:X40 H48:X1004 H42:X46">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>AND($D4&lt;=D$3,$E4&gt;=D$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:X4">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="5">
       <formula>LEN(TRIM(D4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:X33">
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>AND($D34&lt;=H$3,$E33&gt;=H$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:X34">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND($D35&lt;=H$3,$E34&gt;=H$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:X41">
-    <cfRule type="expression" dxfId="2" priority="12">
-      <formula>AND($D41&lt;=H$3,$E42&gt;=H$3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42:X42">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($D42&lt;=H$3,$E42&gt;=H$3)</formula>
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>AND($D41&lt;=H$3,$E43&gt;=H$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D5:E31 E47:E1003 D32:G40 E41 D41:D1003 F41:G1003" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D5:E31 D32:G40 E41:E42 F41:G46 D48:G1004 D41:D46" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(D5))), AND(ISNUMBER(D5), LEFT(CELL("format", D5))="D"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -26487,9 +26474,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -26499,47 +26488,57 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>11</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A64995-8140-0740-84C6-CA0888502168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC07DE7-6C33-344E-8356-C5636BF26C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart Template" sheetId="1" r:id="rId1"/>
@@ -155,9 +155,6 @@
     <t>Contacto red 4G</t>
   </si>
   <si>
-    <t>PRUEBAS DE CAMPO</t>
-  </si>
-  <si>
     <t>Infraestucturas</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t xml:space="preserve">Semana </t>
+  </si>
+  <si>
+    <t>PRUEBAS DE CAMPO/INFORME TÉCNICO-ECONÓMICO</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,50 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -571,51 +614,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,8 +943,8 @@
   </sheetPr>
   <dimension ref="B1:X1004"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="81" workbookViewId="0">
-      <selection activeCell="Z49" sqref="Z49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -961,98 +961,98 @@
   <sheetData>
     <row r="1" spans="2:24" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
     </row>
     <row r="2" spans="2:24" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
       <c r="C2" s="9"/>
-      <c r="G2" s="42" t="s">
-        <v>74</v>
+      <c r="G2" s="23" t="s">
+        <v>73</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="23">
         <v>2</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="23">
         <v>3</v>
       </c>
-      <c r="J2" s="42">
+      <c r="J2" s="23">
         <v>4</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2" s="23">
         <v>5</v>
       </c>
-      <c r="L2" s="42">
+      <c r="L2" s="23">
         <v>6</v>
       </c>
-      <c r="M2" s="42">
+      <c r="M2" s="23">
         <v>7</v>
       </c>
-      <c r="N2" s="42">
+      <c r="N2" s="23">
         <v>8</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23">
         <v>9</v>
       </c>
-      <c r="R2" s="42">
+      <c r="R2" s="23">
         <v>10</v>
       </c>
-      <c r="S2" s="42">
+      <c r="S2" s="23">
         <v>11</v>
       </c>
-      <c r="T2" s="42">
+      <c r="T2" s="23">
         <v>12</v>
       </c>
-      <c r="U2" s="42">
+      <c r="U2" s="23">
         <v>13</v>
       </c>
-      <c r="V2" s="42">
+      <c r="V2" s="23">
         <v>14</v>
       </c>
-      <c r="W2" s="42">
+      <c r="W2" s="23">
         <v>15</v>
       </c>
-      <c r="X2" s="41">
+      <c r="X2" s="25">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="63" x14ac:dyDescent="0.15">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="23" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="15">
@@ -1108,10 +1108,10 @@
       </c>
     </row>
     <row r="4" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B4" s="25" t="s">
-        <v>62</v>
+      <c r="B4" s="40" t="s">
+        <v>61</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1135,10 +1135,10 @@
       <c r="X4" s="5"/>
     </row>
     <row r="5" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
@@ -1162,8 +1162,8 @@
       <c r="X5" s="5"/>
     </row>
     <row r="6" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B6" s="23" t="s">
-        <v>57</v>
+      <c r="B6" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>14</v>
@@ -1175,7 +1175,7 @@
         <v>44997</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="19"/>
@@ -1208,7 +1208,7 @@
         <v>44997</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
@@ -1241,7 +1241,7 @@
         <v>44997</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
@@ -1276,7 +1276,7 @@
         <v>45003</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="10" spans="2:24" ht="13" x14ac:dyDescent="0.15">
       <c r="B10" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3">
         <v>44998</v>
@@ -1311,7 +1311,7 @@
         <v>45003</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
@@ -1333,7 +1333,7 @@
       <c r="X10" s="5"/>
     </row>
     <row r="11" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1346,7 +1346,7 @@
         <v>45039</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
@@ -1368,7 +1368,7 @@
       <c r="X11" s="5"/>
     </row>
     <row r="12" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B12" s="29"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>45039</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
@@ -1401,7 +1401,7 @@
       <c r="X12" s="5"/>
     </row>
     <row r="13" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B13" s="29"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="10" t="s">
         <v>22</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>45039</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
@@ -1434,7 +1434,7 @@
       <c r="X13" s="5"/>
     </row>
     <row r="14" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B14" s="24"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="10" t="s">
         <v>23</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>45039</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
@@ -1480,7 +1480,7 @@
         <v>45039</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
@@ -1502,10 +1502,10 @@
       <c r="X15" s="5"/>
     </row>
     <row r="16" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="3">
         <v>45040</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>45060</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
@@ -1535,10 +1535,10 @@
       <c r="X16" s="5"/>
     </row>
     <row r="17" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="31"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
@@ -1562,8 +1562,8 @@
       <c r="X17" s="5"/>
     </row>
     <row r="18" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B18" s="23" t="s">
-        <v>58</v>
+      <c r="B18" s="35" t="s">
+        <v>57</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>27</v>
@@ -1575,7 +1575,7 @@
         <v>44997</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5"/>
@@ -1597,7 +1597,7 @@
       <c r="X18" s="5"/>
     </row>
     <row r="19" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B19" s="24"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="10" t="s">
         <v>28</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>44997</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
@@ -1630,7 +1630,7 @@
       <c r="X19" s="5"/>
     </row>
     <row r="20" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="35" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -1643,7 +1643,7 @@
         <v>45039</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
@@ -1665,7 +1665,7 @@
       <c r="X20" s="5"/>
     </row>
     <row r="21" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B21" s="29"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="10" t="s">
         <v>31</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>45039</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
@@ -1698,7 +1698,7 @@
       <c r="X21" s="5"/>
     </row>
     <row r="22" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B22" s="24"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="10" t="s">
         <v>32</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>45039</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
@@ -1731,7 +1731,7 @@
       <c r="X22" s="5"/>
     </row>
     <row r="23" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -1744,7 +1744,7 @@
         <v>45053</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
@@ -1766,7 +1766,7 @@
       <c r="X23" s="5"/>
     </row>
     <row r="24" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B24" s="29"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="10" t="s">
         <v>34</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>45053</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
@@ -1799,7 +1799,7 @@
       <c r="X24" s="5"/>
     </row>
     <row r="25" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B25" s="24"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="10" t="s">
         <v>35</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>45053</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="26" spans="2:24" ht="13" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>36</v>
@@ -1845,7 +1845,7 @@
         <v>45060</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
@@ -1880,7 +1880,7 @@
         <v>45060</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
@@ -1902,10 +1902,10 @@
       <c r="X27" s="5"/>
     </row>
     <row r="28" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B28" s="30" t="s">
-        <v>39</v>
+      <c r="B28" s="29" t="s">
+        <v>74</v>
       </c>
-      <c r="C28" s="32"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
@@ -1929,11 +1929,11 @@
       <c r="X28" s="5"/>
     </row>
     <row r="29" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B29" s="23" t="s">
-        <v>40</v>
+      <c r="B29" s="35" t="s">
+        <v>39</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="3">
         <v>45061</v>
@@ -1942,7 +1942,7 @@
         <v>45074</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5"/>
@@ -1964,9 +1964,9 @@
       <c r="X29" s="5"/>
     </row>
     <row r="30" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B30" s="29"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="3">
         <v>45061</v>
@@ -1975,7 +1975,7 @@
         <v>45074</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5"/>
@@ -1997,9 +1997,9 @@
       <c r="X30" s="5"/>
     </row>
     <row r="31" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B31" s="24"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="3">
         <v>45061</v>
@@ -2008,7 +2008,7 @@
         <v>45074</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="5"/>
@@ -2030,11 +2030,11 @@
       <c r="X31" s="5"/>
     </row>
     <row r="32" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B32" s="23" t="s">
-        <v>44</v>
+      <c r="B32" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="3">
         <v>45061</v>
@@ -2043,7 +2043,7 @@
         <v>45074</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="5"/>
@@ -2065,7 +2065,7 @@
       <c r="X32" s="5"/>
     </row>
     <row r="33" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B33" s="29"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="6" t="s">
         <v>9</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>45074</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="5"/>
@@ -2098,9 +2098,9 @@
       <c r="X33" s="5"/>
     </row>
     <row r="34" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B34" s="29"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="3">
         <v>45061</v>
@@ -2109,7 +2109,7 @@
         <v>45074</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="5"/>
@@ -2131,9 +2131,9 @@
       <c r="X34" s="5"/>
     </row>
     <row r="35" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B35" s="24"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" s="3">
         <v>45061</v>
@@ -2142,7 +2142,7 @@
         <v>45074</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="5"/>
@@ -2164,11 +2164,11 @@
       <c r="X35" s="5"/>
     </row>
     <row r="36" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B36" s="23" t="s">
-        <v>48</v>
+      <c r="B36" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="3">
         <v>45061</v>
@@ -2177,7 +2177,7 @@
         <v>45074</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="5"/>
@@ -2199,9 +2199,9 @@
       <c r="X36" s="5"/>
     </row>
     <row r="37" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B37" s="29"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" s="3">
         <v>45061</v>
@@ -2210,7 +2210,7 @@
         <v>45074</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="5"/>
@@ -2232,9 +2232,9 @@
       <c r="X37" s="5"/>
     </row>
     <row r="38" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B38" s="24"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="3">
         <v>45061</v>
@@ -2243,7 +2243,7 @@
         <v>45074</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="5"/>
@@ -2265,10 +2265,10 @@
       <c r="X38" s="5"/>
     </row>
     <row r="39" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B39" s="30" t="s">
-        <v>52</v>
+      <c r="B39" s="29" t="s">
+        <v>51</v>
       </c>
-      <c r="C39" s="32"/>
+      <c r="C39" s="42"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -2292,11 +2292,11 @@
       <c r="X39" s="5"/>
     </row>
     <row r="40" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B40" s="23" t="s">
-        <v>60</v>
+      <c r="B40" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="3">
         <v>44970</v>
@@ -2305,7 +2305,7 @@
         <v>45083</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="5"/>
@@ -2327,9 +2327,9 @@
       <c r="X40" s="5"/>
     </row>
     <row r="41" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B41" s="24"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="3">
         <v>44970</v>
@@ -2338,7 +2338,7 @@
         <v>45083</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="5"/>
@@ -2360,18 +2360,18 @@
       <c r="X41" s="5"/>
     </row>
     <row r="42" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B42" s="27" t="s">
-        <v>67</v>
+      <c r="B42" s="33" t="s">
+        <v>66</v>
       </c>
-      <c r="C42" s="28"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="3">
         <v>44970</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="5"/>
@@ -2393,18 +2393,18 @@
       <c r="X42" s="5"/>
     </row>
     <row r="43" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B43" s="27" t="s">
-        <v>55</v>
+      <c r="B43" s="33" t="s">
+        <v>54</v>
       </c>
-      <c r="C43" s="28"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="3">
         <v>44970</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="5"/>
@@ -2426,18 +2426,18 @@
       <c r="X43" s="5"/>
     </row>
     <row r="44" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B44" s="30" t="s">
-        <v>66</v>
+      <c r="B44" s="29" t="s">
+        <v>65</v>
       </c>
-      <c r="C44" s="32"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="3">
         <v>44970</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="5"/>
@@ -2459,20 +2459,20 @@
       <c r="X44" s="5"/>
     </row>
     <row r="45" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B45" s="23" t="s">
-        <v>61</v>
+      <c r="B45" s="35" t="s">
+        <v>60</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" s="3">
         <v>44970</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="5"/>
@@ -2494,7 +2494,7 @@
       <c r="X45" s="5"/>
     </row>
     <row r="46" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B46" s="24"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="10" t="s">
         <v>37</v>
       </c>
@@ -2502,10 +2502,10 @@
         <v>44970</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="5"/>
@@ -26453,13 +26453,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="M1:X1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B11:B14"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B42:C42"/>
@@ -26475,6 +26468,13 @@
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="M1:X1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H48:X1004 H5:X46">
@@ -26562,7 +26562,7 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -26570,7 +26570,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
@@ -26578,7 +26578,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>8</v>
@@ -26586,7 +26586,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>7</v>
@@ -26594,17 +26594,17 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC07DE7-6C33-344E-8356-C5636BF26C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{2AC07DE7-6C33-344E-8356-C5636BF26C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35A74084-DE96-3647-A907-E0CACBA9F1DF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart Template" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
   <si>
     <t>Nombre de la tarea</t>
   </si>
@@ -262,6 +262,15 @@
   <si>
     <t>PRUEBAS DE CAMPO/INFORME TÉCNICO-ECONÓMICO</t>
   </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>Configuración tarjeta SIM</t>
+  </si>
+  <si>
+    <t>Uso de modem 4G</t>
+  </si>
 </sst>
 </file>
 
@@ -374,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -505,11 +514,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -568,41 +599,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,8 +611,48 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,10 +978,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:X1004"/>
+  <dimension ref="B1:X1006"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:C42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -961,28 +998,28 @@
   <sheetData>
     <row r="1" spans="2:24" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
     </row>
     <row r="2" spans="2:24" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
@@ -1039,10 +1076,10 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="63" x14ac:dyDescent="0.15">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="24" t="s">
         <v>1</v>
       </c>
@@ -1108,10 +1145,10 @@
       </c>
     </row>
     <row r="4" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1135,10 +1172,10 @@
       <c r="X4" s="5"/>
     </row>
     <row r="5" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
@@ -1162,7 +1199,7 @@
       <c r="X5" s="5"/>
     </row>
     <row r="6" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="26" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1177,7 +1214,9 @@
       <c r="F6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="5"/>
@@ -1197,7 +1236,7 @@
       <c r="X6" s="5"/>
     </row>
     <row r="7" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B7" s="36"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1210,7 +1249,9 @@
       <c r="F7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="19"/>
       <c r="J7" s="5"/>
@@ -1230,7 +1271,7 @@
       <c r="X7" s="5"/>
     </row>
     <row r="8" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B8" s="37"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
@@ -1243,7 +1284,9 @@
       <c r="F8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="19"/>
@@ -1270,15 +1313,17 @@
         <v>18</v>
       </c>
       <c r="D9" s="3">
-        <v>44998</v>
+        <v>44984</v>
       </c>
-      <c r="E9" s="22">
-        <v>45003</v>
+      <c r="E9" s="3">
+        <v>44984</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -1305,15 +1350,17 @@
         <v>63</v>
       </c>
       <c r="D10" s="3">
-        <v>44998</v>
+        <v>44984</v>
       </c>
-      <c r="E10" s="22">
-        <v>45003</v>
+      <c r="E10" s="3">
+        <v>44984</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -1333,22 +1380,24 @@
       <c r="X10" s="5"/>
     </row>
     <row r="11" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="26" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="3">
-        <v>45005</v>
+        <v>44984</v>
       </c>
       <c r="E11" s="3">
-        <v>45039</v>
+        <v>44984</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1368,20 +1417,22 @@
       <c r="X11" s="5"/>
     </row>
     <row r="12" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3">
-        <v>45005</v>
+        <v>44991</v>
       </c>
       <c r="E12" s="3">
-        <v>45039</v>
+        <v>44998</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -1401,20 +1452,22 @@
       <c r="X12" s="5"/>
     </row>
     <row r="13" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="3">
-        <v>45005</v>
+        <v>44984</v>
       </c>
       <c r="E13" s="3">
-        <v>45039</v>
+        <v>44991</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -1434,20 +1487,22 @@
       <c r="X13" s="5"/>
     </row>
     <row r="14" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B14" s="39"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="3">
-        <v>45005</v>
+        <v>44991</v>
       </c>
       <c r="E14" s="3">
-        <v>45039</v>
+        <v>44998</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1474,15 +1529,17 @@
         <v>26</v>
       </c>
       <c r="D15" s="3">
-        <v>45005</v>
+        <v>44984</v>
       </c>
       <c r="E15" s="3">
-        <v>45039</v>
+        <v>44998</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -1502,20 +1559,24 @@
       <c r="X15" s="5"/>
     </row>
     <row r="16" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B16" s="33" t="s">
-        <v>24</v>
+      <c r="B16" s="43" t="s">
+        <v>75</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="D16" s="3">
-        <v>45040</v>
+        <v>44998</v>
       </c>
       <c r="E16" s="3">
-        <v>45060</v>
+        <v>45005</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -1535,14 +1596,22 @@
       <c r="X16" s="5"/>
     </row>
     <row r="17" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B17" s="29" t="s">
-        <v>13</v>
+      <c r="B17" s="44"/>
+      <c r="C17" s="10" t="s">
+        <v>77</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="D17" s="3">
+        <v>44998</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45005</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -1562,22 +1631,22 @@
       <c r="X17" s="5"/>
     </row>
     <row r="18" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B18" s="35" t="s">
-        <v>57</v>
+      <c r="B18" s="30" t="s">
+        <v>24</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="C18" s="31"/>
       <c r="D18" s="3">
-        <v>44970</v>
+        <v>45040</v>
       </c>
       <c r="E18" s="3">
-        <v>44997</v>
+        <v>45060</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -1597,19 +1666,13 @@
       <c r="X18" s="5"/>
     </row>
     <row r="19" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B19" s="39"/>
-      <c r="C19" s="10" t="s">
-        <v>28</v>
+      <c r="B19" s="33" t="s">
+        <v>13</v>
       </c>
-      <c r="D19" s="3">
-        <v>44970</v>
-      </c>
-      <c r="E19" s="3">
-        <v>44997</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1630,17 +1693,17 @@
       <c r="X19" s="5"/>
     </row>
     <row r="20" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B20" s="35" t="s">
-        <v>29</v>
+      <c r="B20" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" s="3">
-        <v>44998</v>
+        <v>44970</v>
       </c>
       <c r="E20" s="3">
-        <v>45039</v>
+        <v>44997</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>71</v>
@@ -1665,15 +1728,15 @@
       <c r="X20" s="5"/>
     </row>
     <row r="21" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B21" s="38"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3">
-        <v>44998</v>
+        <v>44970</v>
       </c>
       <c r="E21" s="3">
-        <v>45039</v>
+        <v>44997</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>71</v>
@@ -1698,9 +1761,11 @@
       <c r="X21" s="5"/>
     </row>
     <row r="22" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B22" s="39"/>
+      <c r="B22" s="26" t="s">
+        <v>29</v>
+      </c>
       <c r="C22" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D22" s="3">
         <v>44998</v>
@@ -1731,17 +1796,15 @@
       <c r="X22" s="5"/>
     </row>
     <row r="23" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B23" s="35" t="s">
-        <v>35</v>
-      </c>
+      <c r="B23" s="32"/>
       <c r="C23" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" s="3">
-        <v>45040</v>
+        <v>44998</v>
       </c>
       <c r="E23" s="3">
-        <v>45053</v>
+        <v>45039</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>71</v>
@@ -1766,15 +1829,15 @@
       <c r="X23" s="5"/>
     </row>
     <row r="24" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B24" s="38"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" s="3">
-        <v>45040</v>
+        <v>44998</v>
       </c>
       <c r="E24" s="3">
-        <v>45053</v>
+        <v>45039</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>71</v>
@@ -1799,9 +1862,11 @@
       <c r="X24" s="5"/>
     </row>
     <row r="25" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B25" s="39"/>
+      <c r="B25" s="26" t="s">
+        <v>35</v>
+      </c>
       <c r="C25" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3">
         <v>45040</v>
@@ -1832,17 +1897,15 @@
       <c r="X25" s="5"/>
     </row>
     <row r="26" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B26" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="B26" s="32"/>
       <c r="C26" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="3">
-        <v>45054</v>
+        <v>45040</v>
       </c>
       <c r="E26" s="3">
-        <v>45060</v>
+        <v>45053</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>71</v>
@@ -1867,17 +1930,15 @@
       <c r="X26" s="5"/>
     </row>
     <row r="27" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B27" s="11" t="s">
-        <v>37</v>
-      </c>
+      <c r="B27" s="27"/>
       <c r="C27" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D27" s="3">
-        <v>45054</v>
+        <v>45040</v>
       </c>
       <c r="E27" s="3">
-        <v>45060</v>
+        <v>45053</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>71</v>
@@ -1902,13 +1963,21 @@
       <c r="X27" s="5"/>
     </row>
     <row r="28" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B28" s="29" t="s">
-        <v>74</v>
+      <c r="B28" s="11" t="s">
+        <v>58</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
+      <c r="C28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="3">
+        <v>45054</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45060</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -1929,20 +1998,20 @@
       <c r="X28" s="5"/>
     </row>
     <row r="29" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B29" s="35" t="s">
-        <v>39</v>
+      <c r="B29" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" s="3">
-        <v>45061</v>
+        <v>45054</v>
       </c>
       <c r="E29" s="3">
-        <v>45074</v>
+        <v>45060</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5"/>
@@ -1964,19 +2033,13 @@
       <c r="X29" s="5"/>
     </row>
     <row r="30" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B30" s="38"/>
-      <c r="C30" s="10" t="s">
-        <v>41</v>
+      <c r="B30" s="33" t="s">
+        <v>74</v>
       </c>
-      <c r="D30" s="3">
-        <v>45061</v>
-      </c>
-      <c r="E30" s="3">
-        <v>45074</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -1997,9 +2060,11 @@
       <c r="X30" s="5"/>
     </row>
     <row r="31" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B31" s="39"/>
+      <c r="B31" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="C31" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" s="3">
         <v>45061</v>
@@ -2030,11 +2095,9 @@
       <c r="X31" s="5"/>
     </row>
     <row r="32" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B32" s="35" t="s">
-        <v>43</v>
-      </c>
+      <c r="B32" s="32"/>
       <c r="C32" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D32" s="3">
         <v>45061</v>
@@ -2045,7 +2108,7 @@
       <c r="F32" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="3"/>
+      <c r="G32" s="4"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -2065,9 +2128,9 @@
       <c r="X32" s="5"/>
     </row>
     <row r="33" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B33" s="38"/>
-      <c r="C33" s="6" t="s">
-        <v>9</v>
+      <c r="B33" s="27"/>
+      <c r="C33" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="D33" s="3">
         <v>45061</v>
@@ -2078,7 +2141,7 @@
       <c r="F33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="3"/>
+      <c r="G33" s="4"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -2098,9 +2161,11 @@
       <c r="X33" s="5"/>
     </row>
     <row r="34" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B34" s="38"/>
+      <c r="B34" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="C34" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="3">
         <v>45061</v>
@@ -2131,9 +2196,9 @@
       <c r="X34" s="5"/>
     </row>
     <row r="35" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B35" s="39"/>
-      <c r="C35" s="10" t="s">
-        <v>46</v>
+      <c r="B35" s="32"/>
+      <c r="C35" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="D35" s="3">
         <v>45061</v>
@@ -2164,11 +2229,9 @@
       <c r="X35" s="5"/>
     </row>
     <row r="36" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B36" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="B36" s="32"/>
       <c r="C36" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D36" s="3">
         <v>45061</v>
@@ -2199,9 +2262,9 @@
       <c r="X36" s="5"/>
     </row>
     <row r="37" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B37" s="38"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D37" s="3">
         <v>45061</v>
@@ -2232,9 +2295,11 @@
       <c r="X37" s="5"/>
     </row>
     <row r="38" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B38" s="39"/>
+      <c r="B38" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="C38" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D38" s="3">
         <v>45061</v>
@@ -2265,13 +2330,19 @@
       <c r="X38" s="5"/>
     </row>
     <row r="39" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B39" s="29" t="s">
-        <v>51</v>
+      <c r="B39" s="32"/>
+      <c r="C39" s="10" t="s">
+        <v>49</v>
       </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="D39" s="3">
+        <v>45061</v>
+      </c>
+      <c r="E39" s="3">
+        <v>45074</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -2292,19 +2363,17 @@
       <c r="X39" s="5"/>
     </row>
     <row r="40" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B40" s="35" t="s">
-        <v>59</v>
-      </c>
+      <c r="B40" s="27"/>
       <c r="C40" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D40" s="3">
-        <v>44970</v>
+        <v>45061</v>
       </c>
       <c r="E40" s="3">
-        <v>45083</v>
+        <v>45074</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="4" t="s">
         <v>72</v>
       </c>
       <c r="G40" s="3"/>
@@ -2327,19 +2396,13 @@
       <c r="X40" s="5"/>
     </row>
     <row r="41" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B41" s="39"/>
-      <c r="C41" s="10" t="s">
-        <v>53</v>
+      <c r="B41" s="33" t="s">
+        <v>51</v>
       </c>
-      <c r="D41" s="3">
-        <v>44970</v>
-      </c>
-      <c r="E41" s="3">
-        <v>45083</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="C41" s="35"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -2360,15 +2423,17 @@
       <c r="X41" s="5"/>
     </row>
     <row r="42" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B42" s="33" t="s">
-        <v>66</v>
+      <c r="B42" s="26" t="s">
+        <v>59</v>
       </c>
-      <c r="C42" s="34"/>
+      <c r="C42" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="D42" s="3">
         <v>44970</v>
       </c>
-      <c r="E42" s="22" t="s">
-        <v>64</v>
+      <c r="E42" s="3">
+        <v>45083</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>72</v>
@@ -2393,15 +2458,15 @@
       <c r="X42" s="5"/>
     </row>
     <row r="43" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B43" s="33" t="s">
-        <v>54</v>
+      <c r="B43" s="27"/>
+      <c r="C43" s="10" t="s">
+        <v>53</v>
       </c>
-      <c r="C43" s="34"/>
       <c r="D43" s="3">
         <v>44970</v>
       </c>
-      <c r="E43" s="22" t="s">
-        <v>64</v>
+      <c r="E43" s="3">
+        <v>45083</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>72</v>
@@ -2426,10 +2491,10 @@
       <c r="X43" s="5"/>
     </row>
     <row r="44" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B44" s="29" t="s">
-        <v>65</v>
+      <c r="B44" s="30" t="s">
+        <v>66</v>
       </c>
-      <c r="C44" s="42"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="3">
         <v>44970</v>
       </c>
@@ -2459,12 +2524,10 @@
       <c r="X44" s="5"/>
     </row>
     <row r="45" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B45" s="35" t="s">
-        <v>60</v>
+      <c r="B45" s="30" t="s">
+        <v>54</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="C45" s="31"/>
       <c r="D45" s="3">
         <v>44970</v>
       </c>
@@ -2494,10 +2557,10 @@
       <c r="X45" s="5"/>
     </row>
     <row r="46" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B46" s="39"/>
-      <c r="C46" s="10" t="s">
-        <v>37</v>
+      <c r="B46" s="33" t="s">
+        <v>65</v>
       </c>
+      <c r="C46" s="35"/>
       <c r="D46" s="3">
         <v>44970</v>
       </c>
@@ -2526,12 +2589,55 @@
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
     </row>
+    <row r="47" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="B47" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="3">
+        <v>44970</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+    </row>
     <row r="48" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B48" s="1"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="3">
+        <v>44970</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="G48" s="3"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -2550,31 +2656,6 @@
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
-    </row>
-    <row r="49" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B49" s="1"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
     </row>
     <row r="50" spans="2:24" ht="13" x14ac:dyDescent="0.15">
       <c r="B50" s="1"/>
@@ -26451,38 +26532,89 @@
       <c r="W1004" s="5"/>
       <c r="X1004" s="5"/>
     </row>
+    <row r="1005" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="B1005" s="1"/>
+      <c r="C1005" s="6"/>
+      <c r="D1005" s="3"/>
+      <c r="E1005" s="3"/>
+      <c r="F1005" s="3"/>
+      <c r="G1005" s="3"/>
+      <c r="H1005" s="5"/>
+      <c r="I1005" s="5"/>
+      <c r="J1005" s="5"/>
+      <c r="K1005" s="5"/>
+      <c r="L1005" s="5"/>
+      <c r="M1005" s="5"/>
+      <c r="N1005" s="5"/>
+      <c r="O1005" s="5"/>
+      <c r="P1005" s="5"/>
+      <c r="Q1005" s="5"/>
+      <c r="R1005" s="5"/>
+      <c r="S1005" s="5"/>
+      <c r="T1005" s="5"/>
+      <c r="U1005" s="5"/>
+      <c r="V1005" s="5"/>
+      <c r="W1005" s="5"/>
+      <c r="X1005" s="5"/>
+    </row>
+    <row r="1006" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="B1006" s="1"/>
+      <c r="C1006" s="6"/>
+      <c r="D1006" s="3"/>
+      <c r="E1006" s="3"/>
+      <c r="F1006" s="3"/>
+      <c r="G1006" s="3"/>
+      <c r="H1006" s="5"/>
+      <c r="I1006" s="5"/>
+      <c r="J1006" s="5"/>
+      <c r="K1006" s="5"/>
+      <c r="L1006" s="5"/>
+      <c r="M1006" s="5"/>
+      <c r="N1006" s="5"/>
+      <c r="O1006" s="5"/>
+      <c r="P1006" s="5"/>
+      <c r="Q1006" s="5"/>
+      <c r="R1006" s="5"/>
+      <c r="S1006" s="5"/>
+      <c r="T1006" s="5"/>
+      <c r="U1006" s="5"/>
+      <c r="V1006" s="5"/>
+      <c r="W1006" s="5"/>
+      <c r="X1006" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B40:B41"/>
+  <mergeCells count="23">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="M1:X1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B42:B43"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="H48:X1004 H5:X46">
+  <conditionalFormatting sqref="H50:X1006 H5:X48">
     <cfRule type="notContainsBlanks" dxfId="4" priority="7">
       <formula>LEN(TRIM(H5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:X4 H5:X32 H35:X40 H48:X1004 H42:X46">
+  <conditionalFormatting sqref="D4:X4 H5:X34 H37:X42 H50:X1006 H44:X48">
     <cfRule type="expression" dxfId="3" priority="8">
       <formula>AND($D4&lt;=D$3,$E4&gt;=D$3)</formula>
     </cfRule>
@@ -26492,25 +26624,25 @@
       <formula>LEN(TRIM(D4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33:X34">
+  <conditionalFormatting sqref="H35:X36">
     <cfRule type="expression" dxfId="1" priority="10">
-      <formula>AND($D34&lt;=H$3,$E33&gt;=H$3)</formula>
+      <formula>AND($D36&lt;=H$3,$E35&gt;=H$3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:X41">
+  <conditionalFormatting sqref="H43:X43">
     <cfRule type="expression" dxfId="0" priority="12">
-      <formula>AND($D41&lt;=H$3,$E43&gt;=H$3)</formula>
+      <formula>AND($D43&lt;=H$3,$E45&gt;=H$3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E41:E42 F39:F46 D48:G1004 D41:D46 D5:E40 G32:G46" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E43:E44 F41:F48 D50:G1006 D43:D48 G34:G48 D5:E42" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(D5))), AND(ISNUMBER(D5), LEFT(CELL("format", D5))="D"))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'Assignees and Status'!$A$2:$A$35</xm:f>
@@ -26521,13 +26653,13 @@
           <x14:formula1>
             <xm:f>'Assignees and Status'!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G31</xm:sqref>
+          <xm:sqref>G5:G33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>'Assignees and Status'!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F6:F38</xm:sqref>
+          <xm:sqref>F6:F40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
